--- a/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzn.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14160" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -197,46 +197,31 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>Wien-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wien-2016 , 20f </t>
-  </si>
-  <si>
-    <t>Wien-2016 , 35.05h</t>
-  </si>
-  <si>
-    <t>AT31-2014</t>
-  </si>
-  <si>
-    <t>AT31-2015</t>
-  </si>
-  <si>
-    <t>AT31-2016</t>
-  </si>
-  <si>
-    <t>AT11-2014</t>
-  </si>
-  <si>
-    <t>AT11-2015</t>
-  </si>
-  <si>
-    <t>AT11-2016</t>
-  </si>
-  <si>
-    <t>AT-2016</t>
-  </si>
-  <si>
-    <t>AT-2017</t>
-  </si>
-  <si>
-    <t>AT12-2010</t>
-  </si>
-  <si>
-    <t>AT13-2010</t>
-  </si>
-  <si>
-    <t>AT11-2010</t>
+    <t>Linz-2016</t>
+  </si>
+  <si>
+    <t>Linz-2017</t>
+  </si>
+  <si>
+    <t>LZ-2017</t>
+  </si>
+  <si>
+    <t>LZB-1</t>
+  </si>
+  <si>
+    <t>LZB-2</t>
+  </si>
+  <si>
+    <t>LZB-3</t>
+  </si>
+  <si>
+    <t>LZN-1</t>
+  </si>
+  <si>
+    <t>LZN-2</t>
+  </si>
+  <si>
+    <t>LZN-3</t>
   </si>
 </sst>
 </file>
@@ -664,7 +649,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +721,7 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0.64</v>
@@ -774,7 +759,7 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -812,7 +797,7 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -850,7 +835,7 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0.4</v>
@@ -888,7 +873,7 @@
         <v>42</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -926,7 +911,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0.61</v>
@@ -964,7 +949,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0.95</v>
@@ -1002,7 +987,7 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0.95</v>
@@ -1039,10 +1024,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1480,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -1537,19 +1525,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,19 +1545,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzn.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzn.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15225" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
-    <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Heat Storage" sheetId="4" r:id="rId4"/>
-    <sheet name="Energy Carrier" sheetId="5" r:id="rId5"/>
-    <sheet name="Default - External Data" sheetId="6" r:id="rId6"/>
+    <sheet name="emmision factors" sheetId="2" r:id="rId2"/>
+    <sheet name="energy carrier prices" sheetId="7" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Heat Storage" sheetId="4" r:id="rId5"/>
+    <sheet name="Energy Carrier" sheetId="5" r:id="rId6"/>
+    <sheet name="Default - External Data" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -197,31 +198,25 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>Linz-2016</t>
-  </si>
-  <si>
-    <t>Linz-2017</t>
-  </si>
-  <si>
-    <t>LZ-2017</t>
-  </si>
-  <si>
-    <t>LZB-1</t>
-  </si>
-  <si>
-    <t>LZB-2</t>
-  </si>
-  <si>
-    <t>LZB-3</t>
-  </si>
-  <si>
-    <t>LZN-1</t>
-  </si>
-  <si>
-    <t>LZN-2</t>
-  </si>
-  <si>
-    <t>LZN-3</t>
+    <t>Linz#2016</t>
+  </si>
+  <si>
+    <t>Linz#2017</t>
+  </si>
+  <si>
+    <t>LZ#2017</t>
+  </si>
+  <si>
+    <t>LZN#1</t>
+  </si>
+  <si>
+    <t>LZB#1</t>
+  </si>
+  <si>
+    <t>LZN#2</t>
+  </si>
+  <si>
+    <t>LZN#3</t>
   </si>
 </sst>
 </file>
@@ -648,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +716,7 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0.64</v>
@@ -759,7 +754,7 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -797,7 +792,7 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -835,7 +830,7 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0.4</v>
@@ -873,7 +868,7 @@
         <v>42</v>
       </c>
       <c r="D6">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -911,7 +906,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0.61</v>
@@ -949,7 +944,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0.95</v>
@@ -987,7 +982,7 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0.95</v>
@@ -1021,29 +1016,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1053,22 +1047,19 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1076,13 +1067,10 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>62</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1090,13 +1078,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1104,13 +1089,10 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1118,13 +1100,10 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1132,13 +1111,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1146,13 +1122,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1162,11 +1135,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1176,11 +1146,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1190,11 +1157,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1202,13 +1166,10 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1216,9 +1177,6 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
         <v>0</v>
       </c>
     </row>
@@ -1229,121 +1187,217 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1200000</v>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="B2">
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>1300</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>0.95</v>
-      </c>
-      <c r="G2">
-        <v>0.98</v>
-      </c>
-      <c r="H2">
-        <v>3000</v>
-      </c>
-      <c r="I2">
-        <v>75000</v>
-      </c>
-      <c r="J2">
-        <v>10000</v>
-      </c>
-      <c r="K2">
-        <v>25</v>
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>
@@ -1352,6 +1406,88 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>0.98</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="I2">
+        <v>75000</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1466,19 +1602,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1534,10 +1670,10 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,10 +1690,10 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,10 +1710,10 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
